--- a/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_06_output_v0.1_reIntegration_cca.cluster.0.5_speed_coherence.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_06_output_v0.1_reIntegration_cca.cluster.0.5_speed_coherence.xlsx
@@ -495,25 +495,25 @@
         <v>8.939330101013184</v>
       </c>
       <c r="C2" t="n">
-        <v>5.228888988494873</v>
+        <v>5.228753566741943</v>
       </c>
       <c r="D2" t="n">
-        <v>4.353279113769531</v>
+        <v>4.353246688842773</v>
       </c>
       <c r="E2" t="n">
         <v>6.062596321105957</v>
       </c>
       <c r="F2" t="n">
-        <v>5.562290668487549</v>
+        <v>5.562234878540039</v>
       </c>
       <c r="G2" t="n">
-        <v>4.541982650756836</v>
+        <v>4.541810035705566</v>
       </c>
       <c r="H2" t="n">
         <v>4.208158016204834</v>
       </c>
       <c r="I2" t="n">
-        <v>3.83191180229187</v>
+        <v>3.831764698028564</v>
       </c>
       <c r="J2" t="n">
         <v>4.646617889404297</v>
@@ -529,34 +529,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9076798575133392</v>
+        <v>0.9076826223700317</v>
       </c>
       <c r="C3" t="n">
-        <v>0.842918546865303</v>
+        <v>0.8429655977057894</v>
       </c>
       <c r="D3" t="n">
-        <v>0.874750981083164</v>
+        <v>0.8747452998703177</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8493283087747139</v>
+        <v>0.8493270554040607</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8926849278657796</v>
+        <v>0.8926803219917766</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8415898737208597</v>
+        <v>0.8415863606436499</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8569083234720063</v>
+        <v>0.8569042144114511</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8687146419987959</v>
+        <v>0.8687137961387634</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7912421357982299</v>
+        <v>0.79123986950692</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7701054991237701</v>
+        <v>0.7701036504336766</v>
       </c>
     </row>
   </sheetData>
